--- a/CheckList_and_BugReport.xlsx
+++ b/CheckList_and_BugReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DBED9-F785-4F37-87F9-260DF652337F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -23,48 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
   <si>
     <t>Clicking 'Sign Up' link on 'Log In' screen gets user to 'Sigh Up' screen</t>
   </si>
   <si>
-    <t>Focus text fields results in grey help hints appear on the right</t>
-  </si>
-  <si>
     <t>Focus out text field with no input data results in text field framed red with the asterisk turns red</t>
   </si>
   <si>
     <t>Clicking 'Sigh Up' button in case of a network error and system's failure to open the page results in error feedback message</t>
   </si>
   <si>
-    <t>2.1 Sigh Up</t>
-  </si>
-  <si>
-    <t>2.2 Log In</t>
-  </si>
-  <si>
     <t>Changing language is available for any user before he sign up</t>
   </si>
   <si>
-    <t>3.3 Search by text</t>
-  </si>
-  <si>
     <t>Search results are returned as soon as user starts typing and updates with each added or removed symbols</t>
   </si>
   <si>
     <t>Emptying the search box cancels any textual filter applied</t>
   </si>
   <si>
-    <t>Search across all ideas is available in the search box on the Homepage
-a) the search box is pre-populated by 'Search' label by default
-b) the search becomes empty as soon as the user starts typing in it
-c) system searches for exact text matches (case-insensitive) across all idea types and descriptions</t>
-  </si>
-  <si>
     <t>Searched idea cards are sorted descending by popularity</t>
-  </si>
-  <si>
-    <t>5 Create idea</t>
   </si>
   <si>
     <t>Clicking on the 'I have an idea' link get user navigated to 'Create Idea' page</t>
@@ -111,13 +91,6 @@
     <t>Clicking off 'Title' field with already existed title results in error hint</t>
   </si>
   <si>
-    <t xml:space="preserve">Clicking 'Save as Draft' button with valid data initiates submitting the idea for moderation
-a) filling valid data in mandatory fields ('Category' and 'Title') makes 'Save as Draft' button enable
-'Category' field valid data: at least one checkbox, chosen from dropdown 'Category'
-'Title' field valid data: 1-25 symbols length; unique in user's idea list
-</t>
-  </si>
-  <si>
     <t>Saving idea as a draft by 'Save as Draft' button means it will be available only for the author</t>
   </si>
   <si>
@@ -128,9 +101,6 @@
   </si>
   <si>
     <t>Optional details ('Description', idea image, map tag and map tag caption) are editable after saving idea as a draft by clicking 'Edit Idea' button</t>
-  </si>
-  <si>
-    <t>8 Comments</t>
   </si>
   <si>
     <t>Inputting at least one symbol in 'Comments' section cause in 'x' button appearance</t>
@@ -511,51 +481,7 @@
 'Confirm password' field invalid data: any not match password; case sensitive</t>
   </si>
   <si>
-    <t>Clicking 'Log In' button with valid data initiate user's authorization and entry into the system:
-a) Filling 'Email' and 'Password' fields with valid data make 'Log In' button enable
-'Email' field valid data: email address is exist across portal emails
-'Password' field valid data: password is associated with existed across portal email inputted in 'Email' field</t>
-  </si>
-  <si>
     <t>Clicking off 'Category' field without any category selection results in turning frame and asterisk red</t>
-  </si>
-  <si>
-    <t>Clicking on 'Add Comment' button with valid data in 'Comments' section initiate comment submission
-a) 'Comments' section is pre-populated with 'Enter your comment' hint message
-b) Filling valid data in 'Comments' section makes 'Add Comment' button enable
-'Comments' section valid data: 1-4000 symbols length;  a-z; A-Z; whitespace; special characters; hyperlinks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Clicking 'Sign Up' button with valid data initiate a new account creation:
-a) Filling all fields with valid data makes 'Confirm Password' field enable
-'Name' field valid data: length 1-25 symbols; a-z; A-Z; whitespace; special characters
-'Email' field valid data: conventional input restrictions; unique at portal; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>email address is exist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-'Password' field valid data: min 6 symbols length;  a-z; A-Z; whitespace; special characters
-b) Filling 'Confirm Password' field with valid data makes 'Sign Up' button enable
-'Confirm password' field valid data: must match password (a-z; A-Z; whitespace; special characters)</t>
-    </r>
   </si>
   <si>
     <t>Focus out text field with valid data results in help hint disappears, asterisk turned green</t>
@@ -1828,17 +1754,113 @@
       <t xml:space="preserve"> hovering cursor over the idea's name do not make information disappear</t>
     </r>
   </si>
+  <si>
+    <t>Focus text fields results in grey help hints appearing on the right</t>
+  </si>
+  <si>
+    <t>Clicking 'Sign Up' button with valid data initiate a new account creation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a) Filling 'Name', 'Email' and 'Password' fields with valid data makes 'Confirm Password' field enable
+'Name' field valid data: length 1-25 symbols; a-z; A-Z; whitespace; special characters
+'Email' field valid data: conventional input restrictions; unique at portal; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email address is exist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'Password' field valid data: min 6 symbols length;  a-z; A-Z; whitespace; special characters
+b) Filling 'Confirm Password' field with valid data makes 'Sign Up' button enable
+'Confirm password' field valid data: must match password (a-z; A-Z; whitespace; special characters)</t>
+    </r>
+  </si>
+  <si>
+    <t>substeps:</t>
+  </si>
+  <si>
+    <t>Clicking 'Log In' button with valid data initiate user's authorization and entry into the system:
+substeps:
+a) Filling 'Email' and 'Password' fields with valid data make 'Log In' button enable
+'Email' field valid data: email address is exist across portal emails
+'Password' field valid data: password is associated with existed across portal email inputted in
+ 'Email' field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the search box is pre-populated by 'Search' label by default</t>
+  </si>
+  <si>
+    <t>Search across all ideas is available in the search box on the Homepage</t>
+  </si>
+  <si>
+    <t>System searches for exact text matches (case-insensitive) across all idea types and descriptions</t>
+  </si>
+  <si>
+    <t>Comments' section is pre-populated with 'Enter your comment' hint message</t>
+  </si>
+  <si>
+    <t>Clicking 'Save as Draft' button with valid data initiates submitting the idea for moderation
+substep:
+a) filling valid data in mandatory fields ('Category' and 'Title') makes 'Save as Draft' button enable
+'Category' field valid data: at least one checkbox, chosen from dropdown 'Category'
+'Title' field valid data: 1-25 symbols length; unique in user's idea list</t>
+  </si>
+  <si>
+    <t>Clicking on 'Add Comment' button with valid data in 'Comments' section initiate comment submission
+substep:
+a) Filling valid data in 'Comments' section makes 'Add Comment' button enable
+'Comments' section valid data: 1-4000 symbols length;  a-z; A-Z; whitespace; special characters; hyperlinks</t>
+  </si>
+  <si>
+    <t>2.1 'Sign Up' module</t>
+  </si>
+  <si>
+    <t>2.2 'Log In' module</t>
+  </si>
+  <si>
+    <t>3.3 'Search by text' module</t>
+  </si>
+  <si>
+    <t>5 'Create idea' module</t>
+  </si>
+  <si>
+    <t>8 'Comments' module</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1959,7 +1981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1989,7 +2011,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1998,8 +2019,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2024,44 +2043,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,7 +2122,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2141,7 +2172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2185,7 +2222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2229,7 +2272,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2273,7 +2322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2317,7 +2372,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2361,7 +2422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2405,7 +2472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2449,7 +2522,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2493,7 +2572,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2537,7 +2622,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2581,7 +2672,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2625,7 +2722,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2669,7 +2772,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2713,7 +2822,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2757,7 +2872,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2801,7 +2922,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2845,7 +2972,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2889,7 +3022,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2933,7 +3072,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2977,7 +3122,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3021,7 +3172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3315,34 +3472,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="2" max="2" width="81.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="112" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="101" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3350,99 +3508,107 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="38"/>
       <c r="D4" s="2">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
+      <c r="B5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="38"/>
       <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>84</v>
+      <c r="E5" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="D6" s="2">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="D7" s="2">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="D8" s="2">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -3450,43 +3616,43 @@
         <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
+      <c r="E11" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -3494,299 +3660,361 @@
         <v>3</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="D16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="37">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="D23" s="13">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="D24" s="2">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="D25" s="13">
+        <v>7</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="D27" s="13">
+        <v>9</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
+      <c r="F27" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="D29" s="13">
+        <v>11</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9">
+        <v>12</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="36">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="13">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="D34" s="13">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="D35" s="13">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="D36" s="13">
         <v>6</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="14">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="D22" s="14">
-        <v>5</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="D23" s="2">
-        <v>6</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="D24" s="14">
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="18">
         <v>7</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="D25" s="2">
-        <v>8</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="D26" s="14">
-        <v>9</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="D27" s="2">
-        <v>10</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="E37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="D28" s="14">
-        <v>11</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9">
-        <v>12</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="14">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="D32" s="14">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="D33" s="14">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="D34" s="14">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="21">
-        <v>6</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="13"/>
+      <c r="F37" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3794,749 +4022,749 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="19" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="139.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="139.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="J1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="20" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" s="20" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" s="20" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="325.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C15" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="23" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="H15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="254.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="H17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="241.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="23" t="s">
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="281.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="H23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="H24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" t="s">
         <v>105</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>19</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="281.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>21</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>22</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>23</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
